--- a/data/Aguas_Residuais_e_Reutilizadas.xlsx
+++ b/data/Aguas_Residuais_e_Reutilizadas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vasco Abreu - PC\Documents\Python Projects\Matriz_Agua\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA33CBA6-5927-407D-B108-922C5018D029}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8553FAE6-EEB6-49A9-AAD5-739BAA9B10E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{8403A874-7223-4B91-BB02-E9EACE54EAC4}"/>
   </bookViews>
@@ -24,7 +24,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="19">
   <si>
     <t>Designação:</t>
   </si>
@@ -255,11 +257,59 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -268,48 +318,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -326,10 +334,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -629,44 +633,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F8B7E92-B75B-420B-BB30-85873D3162DA}">
-  <dimension ref="A1:W11"/>
+  <dimension ref="A1:AG17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" style="5" customWidth="1"/>
-    <col min="2" max="4" width="12.5703125" style="5" customWidth="1"/>
-    <col min="5" max="7" width="11.85546875" style="5" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="5" customWidth="1"/>
-    <col min="10" max="11" width="13.140625" style="5" customWidth="1"/>
-    <col min="12" max="12" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" style="5" customWidth="1"/>
-    <col min="14" max="14" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.5703125" style="5" customWidth="1"/>
-    <col min="16" max="16" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.85546875" style="5" customWidth="1"/>
-    <col min="18" max="18" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13" style="5" customWidth="1"/>
-    <col min="20" max="20" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.85546875" style="5" customWidth="1"/>
-    <col min="22" max="22" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.28515625" style="5" customWidth="1"/>
-    <col min="24" max="24" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11" style="5" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11" style="5" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11" style="5" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11" style="5" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="20.5703125" style="2" customWidth="1"/>
+    <col min="2" max="4" width="12.5703125" style="2" customWidth="1"/>
+    <col min="5" max="7" width="11.85546875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="2" customWidth="1"/>
+    <col min="10" max="11" width="13.140625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.85546875" style="2" customWidth="1"/>
+    <col min="18" max="18" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13" style="2" customWidth="1"/>
+    <col min="20" max="20" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.85546875" style="2" customWidth="1"/>
+    <col min="22" max="22" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.28515625" style="2" customWidth="1"/>
+    <col min="24" max="24" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:33">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -682,7 +684,7 @@
       <c r="I1" s="16"/>
       <c r="J1" s="16"/>
     </row>
-    <row r="2" spans="1:23" ht="17.25" customHeight="1">
+    <row r="2" spans="1:33" ht="17.25" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -698,8 +700,8 @@
       <c r="I2" s="16"/>
       <c r="J2" s="16"/>
     </row>
-    <row r="3" spans="1:23" ht="45.75" customHeight="1">
-      <c r="A3" s="14" t="s">
+    <row r="3" spans="1:33" ht="45.75" customHeight="1">
+      <c r="A3" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="15" t="s">
@@ -714,447 +716,687 @@
       <c r="I3" s="15"/>
       <c r="J3" s="15"/>
     </row>
-    <row r="4" spans="1:23">
-      <c r="B4" s="13"/>
-    </row>
-    <row r="6" spans="1:23">
-      <c r="A6" s="11" t="s">
+    <row r="4" spans="1:33">
+      <c r="B4" s="7"/>
+    </row>
+    <row r="6" spans="1:33">
+      <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="13">
         <v>2003</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="8">
+      <c r="C6" s="14"/>
+      <c r="D6" s="13">
         <f>+B6+1</f>
         <v>2004</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="8">
+      <c r="E6" s="14"/>
+      <c r="F6" s="13">
         <f t="shared" ref="F6" si="0">+D6+1</f>
         <v>2005</v>
       </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="8">
+      <c r="G6" s="14"/>
+      <c r="H6" s="13">
         <f t="shared" ref="H6" si="1">+F6+1</f>
         <v>2006</v>
       </c>
-      <c r="I6" s="9"/>
-      <c r="J6" s="8">
+      <c r="I6" s="14"/>
+      <c r="J6" s="13">
         <f t="shared" ref="J6" si="2">+H6+1</f>
         <v>2007</v>
       </c>
-      <c r="K6" s="9"/>
-      <c r="L6" s="8">
+      <c r="K6" s="14"/>
+      <c r="L6" s="13">
         <f t="shared" ref="L6" si="3">+J6+1</f>
         <v>2008</v>
       </c>
-      <c r="M6" s="9"/>
-      <c r="N6" s="8">
+      <c r="M6" s="14"/>
+      <c r="N6" s="13">
         <f t="shared" ref="N6" si="4">+L6+1</f>
         <v>2009</v>
       </c>
-      <c r="O6" s="9"/>
-      <c r="P6" s="8">
+      <c r="O6" s="14"/>
+      <c r="P6" s="13">
         <f t="shared" ref="P6" si="5">+N6+1</f>
         <v>2010</v>
       </c>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="8">
+      <c r="Q6" s="14"/>
+      <c r="R6" s="13">
         <f t="shared" ref="R6" si="6">+P6+1</f>
         <v>2011</v>
       </c>
-      <c r="S6" s="9"/>
-      <c r="T6" s="8">
+      <c r="S6" s="14"/>
+      <c r="T6" s="13">
         <f t="shared" ref="T6" si="7">+R6+1</f>
         <v>2012</v>
       </c>
-      <c r="U6" s="9"/>
-      <c r="V6" s="8">
+      <c r="U6" s="14"/>
+      <c r="V6" s="13">
         <f t="shared" ref="V6" si="8">+T6+1</f>
         <v>2013</v>
       </c>
-      <c r="W6" s="9"/>
-    </row>
-    <row r="7" spans="1:23" ht="75">
-      <c r="A7" s="12" t="s">
+      <c r="W6" s="14"/>
+      <c r="X6" s="13">
+        <f t="shared" ref="X6" si="9">+V6+1</f>
+        <v>2014</v>
+      </c>
+      <c r="Y6" s="14"/>
+      <c r="Z6" s="13">
+        <f t="shared" ref="Z6" si="10">+X6+1</f>
+        <v>2015</v>
+      </c>
+      <c r="AA6" s="14"/>
+      <c r="AB6" s="13">
+        <f t="shared" ref="AB6" si="11">+Z6+1</f>
+        <v>2016</v>
+      </c>
+      <c r="AC6" s="14"/>
+      <c r="AD6" s="13">
+        <f t="shared" ref="AD6" si="12">+AB6+1</f>
+        <v>2017</v>
+      </c>
+      <c r="AE6" s="14"/>
+      <c r="AF6" s="13">
+        <f t="shared" ref="AF6" si="13">+AD6+1</f>
+        <v>2018</v>
+      </c>
+      <c r="AG6" s="14"/>
+    </row>
+    <row r="7" spans="1:33" ht="90">
+      <c r="A7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="I7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="10" t="s">
+      <c r="J7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="10" t="s">
+      <c r="K7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L7" s="10" t="s">
+      <c r="L7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="10" t="s">
+      <c r="M7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="N7" s="10" t="s">
+      <c r="N7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="O7" s="10" t="s">
+      <c r="O7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="P7" s="10" t="s">
+      <c r="P7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="Q7" s="10" t="s">
+      <c r="Q7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="R7" s="10" t="s">
+      <c r="R7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="S7" s="10" t="s">
+      <c r="S7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="T7" s="10" t="s">
+      <c r="T7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="U7" s="10" t="s">
+      <c r="U7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="V7" s="10" t="s">
+      <c r="V7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="W7" s="10" t="s">
+      <c r="W7" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:23">
-      <c r="A8" s="11" t="s">
+      <c r="X7" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y7" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z7" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA7" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB7" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC7" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD7" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE7" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF7" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG7" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33">
+      <c r="A8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="3">
         <v>24937.644960000001</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="3">
         <v>9697.9730400000008</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="3">
         <v>23154.8544</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="3">
         <v>9004.6656000000003</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="3">
         <v>22898.0952</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="3">
         <v>8904.8148000000001</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="3">
         <v>25455.151368000003</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="3">
         <v>9899.2255319999931</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="3">
         <v>23249.721600000001</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="3">
         <v>9041.5583999999999</v>
       </c>
-      <c r="L8" s="6">
+      <c r="L8" s="3">
         <v>25455.151368000003</v>
       </c>
-      <c r="M8" s="6">
+      <c r="M8" s="3">
         <v>6850.4386319999976</v>
       </c>
-      <c r="N8" s="6">
+      <c r="N8" s="3">
         <v>25545.490559999998</v>
       </c>
-      <c r="O8" s="6">
+      <c r="O8" s="3">
         <v>9934.3574399999998</v>
       </c>
-      <c r="P8" s="6">
+      <c r="P8" s="3">
         <v>28375.143120000001</v>
       </c>
-      <c r="Q8" s="6">
+      <c r="Q8" s="3">
         <v>11034.777880000001</v>
       </c>
-      <c r="R8" s="6">
+      <c r="R8" s="3">
         <v>39492.490760000001</v>
       </c>
-      <c r="S8" s="6">
+      <c r="S8" s="3">
         <v>11399.894240000001</v>
       </c>
-      <c r="T8" s="6">
+      <c r="T8" s="3">
         <v>39142.162455999998</v>
       </c>
-      <c r="U8" s="6">
+      <c r="U8" s="3">
         <v>11298.768544000006</v>
       </c>
-      <c r="V8" s="6">
+      <c r="V8" s="3">
         <v>41677.439815999998</v>
       </c>
-      <c r="W8" s="6">
+      <c r="W8" s="3">
         <v>12030.601184000006</v>
       </c>
-    </row>
-    <row r="9" spans="1:23">
-      <c r="A9" s="11" t="s">
+      <c r="X8" s="3">
+        <v>46845</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>13522</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>38287.940340000001</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>10799.162660000002</v>
+      </c>
+      <c r="AB8" s="3">
+        <v>44837.961479999998</v>
+      </c>
+      <c r="AC8" s="3">
+        <v>12646.604520000001</v>
+      </c>
+      <c r="AD8" s="3">
+        <v>39007.305</v>
+      </c>
+      <c r="AE8" s="3">
+        <v>11259.841</v>
+      </c>
+      <c r="AF8" s="3">
+        <v>40870.713000000003</v>
+      </c>
+      <c r="AG8" s="3">
+        <v>11797.732</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33">
+      <c r="A9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="3">
         <v>5114.7124000000003</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="3">
         <v>6004.2276000000002</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="3">
         <v>6349.7848000000004</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="3">
         <v>7454.0952000000007</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="3">
         <v>5569.2107999999998</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="3">
         <v>6537.7691999999997</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="3">
         <v>6160.2740229999999</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="3">
         <v>7231.6260270000002</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="3">
         <v>5727.0184000000008</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="3">
         <v>6723.0215999999991</v>
       </c>
-      <c r="L9" s="6">
+      <c r="L9" s="3">
         <v>6160.2740229999999</v>
       </c>
-      <c r="M9" s="6">
+      <c r="M9" s="3">
         <v>8329.0259770000011</v>
       </c>
-      <c r="N9" s="6">
+      <c r="N9" s="3">
         <v>7700.8554000000004</v>
       </c>
-      <c r="O9" s="6">
+      <c r="O9" s="3">
         <v>9040.1346000000012</v>
       </c>
-      <c r="P9" s="6">
+      <c r="P9" s="3">
         <v>8724.2726000000002</v>
       </c>
-      <c r="Q9" s="6">
+      <c r="Q9" s="3">
         <v>10241.537400000001</v>
       </c>
-      <c r="R9" s="6">
+      <c r="R9" s="3">
         <v>8464.3266000000003</v>
       </c>
-      <c r="S9" s="6">
+      <c r="S9" s="3">
         <v>9936.3833999999988</v>
       </c>
-      <c r="T9" s="6">
+      <c r="T9" s="3">
         <v>7334.6000451679902</v>
       </c>
-      <c r="U9" s="6">
+      <c r="U9" s="3">
         <v>8437.3799548320094</v>
       </c>
-      <c r="V9" s="6">
+      <c r="V9" s="3">
         <v>8310.9401417282097</v>
       </c>
-      <c r="W9" s="6">
+      <c r="W9" s="3">
         <v>8660.12985827179</v>
       </c>
-    </row>
-    <row r="10" spans="1:23">
-      <c r="A10" s="11" t="s">
+      <c r="X9" s="3">
+        <v>8520</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>8879</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>8086.1078899999993</v>
+      </c>
+      <c r="AA9" s="3">
+        <v>8416.1531099999993</v>
+      </c>
+      <c r="AB9" s="3">
+        <v>8072.4597974999988</v>
+      </c>
+      <c r="AC9" s="3">
+        <v>8401.9479524999988</v>
+      </c>
+      <c r="AD9" s="3">
+        <v>6831.2860000000001</v>
+      </c>
+      <c r="AE9" s="3">
+        <v>7118.3069999999998</v>
+      </c>
+      <c r="AF9" s="3">
+        <v>7137.0439999999999</v>
+      </c>
+      <c r="AG9" s="3">
+        <v>7436.9110000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33">
+      <c r="A10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="3">
         <v>13658.619000000001</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="3">
         <v>0</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="3">
         <v>13292.681</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="3">
         <v>0</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="3">
         <v>13070.539000000001</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="3">
         <v>0</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="3">
         <v>13069.5227</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="3">
         <v>0</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="3">
         <v>12696.4</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="3">
         <v>0</v>
       </c>
-      <c r="L10" s="6">
+      <c r="L10" s="3">
         <v>13690.210999999999</v>
       </c>
-      <c r="M10" s="6">
+      <c r="M10" s="3">
         <v>0</v>
       </c>
-      <c r="N10" s="6">
+      <c r="N10" s="3">
         <v>14623.324000000001</v>
       </c>
-      <c r="O10" s="6">
+      <c r="O10" s="3">
         <v>0</v>
       </c>
-      <c r="P10" s="6">
+      <c r="P10" s="3">
         <v>15309.687</v>
       </c>
-      <c r="Q10" s="6">
+      <c r="Q10" s="3">
         <v>0</v>
       </c>
-      <c r="R10" s="6">
+      <c r="R10" s="3">
         <v>14177.553</v>
       </c>
-      <c r="S10" s="6">
+      <c r="S10" s="3">
         <v>0</v>
       </c>
-      <c r="T10" s="6">
+      <c r="T10" s="3">
         <v>12374.471</v>
       </c>
-      <c r="U10" s="6">
+      <c r="U10" s="3">
         <v>0</v>
       </c>
-      <c r="V10" s="6">
+      <c r="V10" s="3">
         <v>14177.553</v>
       </c>
-      <c r="W10" s="6">
+      <c r="W10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:23">
-      <c r="A11" s="11" t="s">
+      <c r="X10" s="3">
+        <v>15607</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="3">
+        <v>13736.422</v>
+      </c>
+      <c r="AA10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="3">
+        <v>15918.721</v>
+      </c>
+      <c r="AC10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="3">
+        <v>13580.957</v>
+      </c>
+      <c r="AE10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="3">
+        <v>12950.357</v>
+      </c>
+      <c r="AG10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33">
+      <c r="A11" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="3">
         <f>+B8+B9+B10</f>
         <v>43710.976360000001</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="3">
         <f>+C8+C9+C10</f>
         <v>15702.200640000001</v>
       </c>
-      <c r="D11" s="6">
-        <f t="shared" ref="D11:W11" si="9">+D8+D9+D10</f>
+      <c r="D11" s="3">
+        <f t="shared" ref="D11:Y11" si="14">+D8+D9+D10</f>
         <v>42797.320200000002</v>
       </c>
-      <c r="E11" s="6">
-        <f t="shared" si="9"/>
+      <c r="E11" s="3">
+        <f t="shared" si="14"/>
         <v>16458.7608</v>
       </c>
-      <c r="F11" s="6">
-        <f t="shared" si="9"/>
+      <c r="F11" s="3">
+        <f t="shared" si="14"/>
         <v>41537.845000000001</v>
       </c>
-      <c r="G11" s="6">
-        <f t="shared" si="9"/>
+      <c r="G11" s="3">
+        <f t="shared" si="14"/>
         <v>15442.583999999999</v>
       </c>
-      <c r="H11" s="6">
-        <f t="shared" si="9"/>
+      <c r="H11" s="3">
+        <f t="shared" si="14"/>
         <v>44684.948091000006</v>
       </c>
-      <c r="I11" s="6">
-        <f t="shared" si="9"/>
+      <c r="I11" s="3">
+        <f t="shared" si="14"/>
         <v>17130.851558999995</v>
       </c>
-      <c r="J11" s="6">
-        <f t="shared" si="9"/>
+      <c r="J11" s="3">
+        <f t="shared" si="14"/>
         <v>41673.14</v>
       </c>
-      <c r="K11" s="6">
-        <f t="shared" si="9"/>
+      <c r="K11" s="3">
+        <f t="shared" si="14"/>
         <v>15764.579999999998</v>
       </c>
-      <c r="L11" s="6">
-        <f t="shared" si="9"/>
+      <c r="L11" s="3">
+        <f t="shared" si="14"/>
         <v>45305.636391000007</v>
       </c>
-      <c r="M11" s="6">
-        <f t="shared" si="9"/>
+      <c r="M11" s="3">
+        <f t="shared" si="14"/>
         <v>15179.464608999999</v>
       </c>
-      <c r="N11" s="6">
-        <f t="shared" si="9"/>
+      <c r="N11" s="3">
+        <f t="shared" si="14"/>
         <v>47869.669959999999</v>
       </c>
-      <c r="O11" s="6">
-        <f t="shared" si="9"/>
+      <c r="O11" s="3">
+        <f t="shared" si="14"/>
         <v>18974.492040000001</v>
       </c>
-      <c r="P11" s="6">
-        <f t="shared" si="9"/>
+      <c r="P11" s="3">
+        <f t="shared" si="14"/>
         <v>52409.102720000003</v>
       </c>
-      <c r="Q11" s="6">
-        <f t="shared" si="9"/>
+      <c r="Q11" s="3">
+        <f t="shared" si="14"/>
         <v>21276.315280000003</v>
       </c>
-      <c r="R11" s="6">
-        <f t="shared" si="9"/>
+      <c r="R11" s="3">
+        <f t="shared" si="14"/>
         <v>62134.370360000001</v>
       </c>
-      <c r="S11" s="6">
-        <f t="shared" si="9"/>
+      <c r="S11" s="3">
+        <f t="shared" si="14"/>
         <v>21336.27764</v>
       </c>
-      <c r="T11" s="6">
-        <f t="shared" si="9"/>
+      <c r="T11" s="3">
+        <f t="shared" si="14"/>
         <v>58851.23350116799</v>
       </c>
-      <c r="U11" s="6">
-        <f t="shared" si="9"/>
+      <c r="U11" s="3">
+        <f t="shared" si="14"/>
         <v>19736.148498832015</v>
       </c>
-      <c r="V11" s="6">
-        <f t="shared" si="9"/>
+      <c r="V11" s="3">
+        <f t="shared" si="14"/>
         <v>64165.932957728204</v>
       </c>
-      <c r="W11" s="6">
-        <f t="shared" si="9"/>
+      <c r="W11" s="3">
+        <f t="shared" si="14"/>
         <v>20690.731042271796</v>
       </c>
+      <c r="X11" s="3">
+        <f>+X8+X9+X10</f>
+        <v>70972</v>
+      </c>
+      <c r="Y11" s="3">
+        <f t="shared" si="14"/>
+        <v>22401</v>
+      </c>
+      <c r="Z11" s="3">
+        <f t="shared" ref="Z11:AG11" si="15">+Z8+Z9+Z10</f>
+        <v>60110.470229999999</v>
+      </c>
+      <c r="AA11" s="3">
+        <f t="shared" si="15"/>
+        <v>19215.315770000001</v>
+      </c>
+      <c r="AB11" s="3">
+        <f t="shared" si="15"/>
+        <v>68829.142277499996</v>
+      </c>
+      <c r="AC11" s="3">
+        <f t="shared" si="15"/>
+        <v>21048.5524725</v>
+      </c>
+      <c r="AD11" s="3">
+        <f t="shared" si="15"/>
+        <v>59419.548000000003</v>
+      </c>
+      <c r="AE11" s="3">
+        <f t="shared" si="15"/>
+        <v>18378.148000000001</v>
+      </c>
+      <c r="AF11" s="3">
+        <f t="shared" si="15"/>
+        <v>60958.114000000001</v>
+      </c>
+      <c r="AG11" s="3">
+        <f t="shared" si="15"/>
+        <v>19234.643</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33">
+      <c r="X12"/>
+      <c r="Y12"/>
+      <c r="Z12"/>
+      <c r="AA12"/>
+      <c r="AB12"/>
+      <c r="AC12"/>
+      <c r="AD12"/>
+      <c r="AE12"/>
+      <c r="AF12"/>
+      <c r="AG12"/>
+    </row>
+    <row r="13" spans="1:33">
+      <c r="X13"/>
+      <c r="Y13"/>
+      <c r="Z13"/>
+      <c r="AA13"/>
+      <c r="AB13"/>
+      <c r="AC13"/>
+      <c r="AD13"/>
+      <c r="AE13"/>
+      <c r="AF13"/>
+      <c r="AG13"/>
+    </row>
+    <row r="14" spans="1:33">
+      <c r="X14"/>
+      <c r="Y14"/>
+      <c r="Z14"/>
+      <c r="AA14"/>
+      <c r="AB14"/>
+      <c r="AC14"/>
+      <c r="AD14"/>
+      <c r="AE14"/>
+      <c r="AF14"/>
+      <c r="AG14"/>
+    </row>
+    <row r="15" spans="1:33">
+      <c r="X15"/>
+      <c r="Y15"/>
+    </row>
+    <row r="17" spans="8:11">
+      <c r="H17" s="12"/>
+      <c r="K17" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="19">
+    <mergeCell ref="X6:Y6"/>
+    <mergeCell ref="Z6:AA6"/>
+    <mergeCell ref="AB6:AC6"/>
+    <mergeCell ref="AD6:AE6"/>
+    <mergeCell ref="AF6:AG6"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B2:J2"/>
     <mergeCell ref="T6:U6"/>
     <mergeCell ref="V6:W6"/>
     <mergeCell ref="H6:I6"/>
@@ -1163,12 +1405,6 @@
     <mergeCell ref="N6:O6"/>
     <mergeCell ref="P6:Q6"/>
     <mergeCell ref="R6:S6"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B2:J2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1176,45 +1412,45 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3CA178A-8F60-41A4-973C-2117B460DD51}">
-  <dimension ref="A1:S32"/>
+  <dimension ref="A1:S31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B7" sqref="B7:S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="15" style="5" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" style="5" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="5" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" style="5" customWidth="1"/>
-    <col min="10" max="12" width="13.85546875" style="5" customWidth="1"/>
-    <col min="13" max="13" width="14.140625" style="5" customWidth="1"/>
-    <col min="14" max="14" width="13.85546875" style="5" customWidth="1"/>
-    <col min="15" max="15" width="15.28515625" style="5" customWidth="1"/>
-    <col min="16" max="26" width="13.85546875" style="5" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="11.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" style="2" customWidth="1"/>
+    <col min="10" max="12" width="13.85546875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="13.85546875" style="2" customWidth="1"/>
+    <col min="15" max="15" width="15.28515625" style="2" customWidth="1"/>
+    <col min="16" max="26" width="13.85546875" style="2" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="57" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="4"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="20"/>
     </row>
     <row r="2" spans="1:19" ht="17.25" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -1232,322 +1468,316 @@
       <c r="I2" s="16"/>
     </row>
     <row r="4" spans="1:19">
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="17">
         <v>2010</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7">
+      <c r="C5" s="17"/>
+      <c r="D5" s="17">
         <f>+B5+1</f>
         <v>2011</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7">
+      <c r="E5" s="17"/>
+      <c r="F5" s="17">
         <f>+D5+1</f>
         <v>2012</v>
       </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7">
+      <c r="G5" s="17"/>
+      <c r="H5" s="17">
         <f>+F5+1</f>
         <v>2013</v>
       </c>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7">
+      <c r="I5" s="17"/>
+      <c r="J5" s="17">
         <f>+H5+1</f>
         <v>2014</v>
       </c>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7">
+      <c r="K5" s="17"/>
+      <c r="L5" s="17">
         <f>+J5+1</f>
         <v>2015</v>
       </c>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7">
+      <c r="M5" s="17"/>
+      <c r="N5" s="17">
         <f>+L5+1</f>
         <v>2016</v>
       </c>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7">
+      <c r="O5" s="17"/>
+      <c r="P5" s="17">
         <f>+N5+1</f>
         <v>2017</v>
       </c>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7">
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17">
         <f>+P5+1</f>
         <v>2018</v>
       </c>
-      <c r="S5" s="7"/>
+      <c r="S5" s="17"/>
     </row>
     <row r="6" spans="1:19" ht="60">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="I6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="10" t="s">
+      <c r="J6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="10" t="s">
+      <c r="K6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="10" t="s">
+      <c r="L6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="M6" s="10" t="s">
+      <c r="M6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="N6" s="10" t="s">
+      <c r="N6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="O6" s="10" t="s">
+      <c r="O6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="P6" s="10" t="s">
+      <c r="P6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="Q6" s="10" t="s">
+      <c r="Q6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="R6" s="10" t="s">
+      <c r="R6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="S6" s="10" t="s">
+      <c r="S6" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="6">
-        <v>1.3299970000000001</v>
-      </c>
-      <c r="C7" s="6">
-        <v>7.9760000000000005E-3</v>
-      </c>
-      <c r="D7" s="6">
-        <v>1.235754</v>
-      </c>
-      <c r="E7" s="6">
-        <v>1.3025E-2</v>
-      </c>
-      <c r="F7" s="6">
-        <v>1.287391</v>
-      </c>
-      <c r="G7" s="6">
-        <v>1.4127000000000001E-2</v>
-      </c>
-      <c r="H7" s="6">
-        <v>1.3990290000000001</v>
-      </c>
-      <c r="I7" s="6">
-        <v>2.4733000000000002E-2</v>
-      </c>
-      <c r="J7" s="6">
-        <v>1.5253410000000001</v>
-      </c>
-      <c r="K7" s="6">
-        <v>2.3637999999999999E-2</v>
-      </c>
-      <c r="L7" s="6">
-        <v>1.5512220000000001</v>
-      </c>
-      <c r="M7" s="6">
-        <v>3.2918000000000003E-2</v>
-      </c>
-      <c r="N7" s="6">
-        <v>1.5080359999999999</v>
-      </c>
-      <c r="O7" s="6">
-        <v>2.3873999999999999E-2</v>
-      </c>
-      <c r="P7" s="6">
-        <v>1.5553760000000001</v>
-      </c>
-      <c r="Q7" s="6">
-        <v>1.9035E-2</v>
-      </c>
-      <c r="R7" s="6">
-        <v>1.7167570000000001</v>
-      </c>
-      <c r="S7" s="6">
-        <v>1.5533999999999999E-2</v>
+      <c r="B7" s="3">
+        <v>1329.9970000000001</v>
+      </c>
+      <c r="C7" s="3">
+        <v>7.9760000000000009</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1235.7539999999999</v>
+      </c>
+      <c r="E7" s="3">
+        <v>13.025</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1287.3909999999998</v>
+      </c>
+      <c r="G7" s="3">
+        <v>14.127000000000001</v>
+      </c>
+      <c r="H7" s="3">
+        <v>1399.029</v>
+      </c>
+      <c r="I7" s="3">
+        <v>24.733000000000001</v>
+      </c>
+      <c r="J7" s="3">
+        <v>1525.3410000000001</v>
+      </c>
+      <c r="K7" s="3">
+        <v>23.637999999999998</v>
+      </c>
+      <c r="L7" s="3">
+        <v>1551.2220000000002</v>
+      </c>
+      <c r="M7" s="3">
+        <v>32.918000000000006</v>
+      </c>
+      <c r="N7" s="3">
+        <v>1508.0359999999998</v>
+      </c>
+      <c r="O7" s="3">
+        <v>23.873999999999999</v>
+      </c>
+      <c r="P7" s="3">
+        <v>1555.3760000000002</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>19.035</v>
+      </c>
+      <c r="R7" s="3">
+        <v>1716.7570000000001</v>
+      </c>
+      <c r="S7" s="3">
+        <v>15.533999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:19">
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="17"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="10"/>
     </row>
     <row r="9" spans="1:19">
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="17"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="10"/>
     </row>
     <row r="10" spans="1:19">
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="17"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="10"/>
     </row>
     <row r="11" spans="1:19">
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="17"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="10"/>
     </row>
     <row r="12" spans="1:19">
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="17"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="10"/>
     </row>
     <row r="13" spans="1:19">
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="17"/>
-    </row>
-    <row r="14" spans="1:19">
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="17"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="10"/>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="10"/>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="17"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="10"/>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="17"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="10"/>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="17"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="10"/>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="17"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="10"/>
     </row>
     <row r="22" spans="2:5">
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="17"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
     </row>
     <row r="23" spans="2:5">
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
     </row>
     <row r="24" spans="2:5">
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
     </row>
     <row r="25" spans="2:5">
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
     </row>
     <row r="26" spans="2:5">
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
     </row>
     <row r="27" spans="2:5">
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
     </row>
     <row r="28" spans="2:5">
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
     </row>
     <row r="29" spans="2:5">
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
     </row>
     <row r="30" spans="2:5">
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
     </row>
     <row r="31" spans="2:5">
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-    </row>
-    <row r="32" spans="2:5">
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
     <mergeCell ref="L5:M5"/>
     <mergeCell ref="N5:O5"/>
     <mergeCell ref="P5:Q5"/>
     <mergeCell ref="R5:S5"/>
     <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
     <mergeCell ref="J5:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/Aguas_Residuais_e_Reutilizadas.xlsx
+++ b/data/Aguas_Residuais_e_Reutilizadas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vasco Abreu - PC\Documents\Python Projects\Matriz_Agua\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8553FAE6-EEB6-49A9-AAD5-739BAA9B10E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{483B1B82-4FFE-479E-9A49-EEDB4F36CA29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{8403A874-7223-4B91-BB02-E9EACE54EAC4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8403A874-7223-4B91-BB02-E9EACE54EAC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Águas_Residuais_Tratadas" sheetId="2" r:id="rId1"/>
@@ -307,17 +307,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -635,7 +635,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F8B7E92-B75B-420B-BB30-85873D3162DA}">
   <dimension ref="A1:AG17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1386,17 +1388,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="X6:Y6"/>
-    <mergeCell ref="Z6:AA6"/>
-    <mergeCell ref="AB6:AC6"/>
-    <mergeCell ref="AD6:AE6"/>
-    <mergeCell ref="AF6:AG6"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B2:J2"/>
     <mergeCell ref="T6:U6"/>
     <mergeCell ref="V6:W6"/>
     <mergeCell ref="H6:I6"/>
@@ -1405,6 +1396,17 @@
     <mergeCell ref="N6:O6"/>
     <mergeCell ref="P6:Q6"/>
     <mergeCell ref="R6:S6"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="X6:Y6"/>
+    <mergeCell ref="Z6:AA6"/>
+    <mergeCell ref="AB6:AC6"/>
+    <mergeCell ref="AD6:AE6"/>
+    <mergeCell ref="AF6:AG6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1414,8 +1416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3CA178A-8F60-41A4-973C-2117B460DD51}">
   <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:S7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1441,16 +1443,16 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="20"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="19"/>
     </row>
     <row r="2" spans="1:19" ht="17.25" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -1477,50 +1479,50 @@
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="20">
         <v>2010</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17">
+      <c r="C5" s="20"/>
+      <c r="D5" s="20">
         <f>+B5+1</f>
         <v>2011</v>
       </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17">
+      <c r="E5" s="20"/>
+      <c r="F5" s="20">
         <f>+D5+1</f>
         <v>2012</v>
       </c>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17">
+      <c r="G5" s="20"/>
+      <c r="H5" s="20">
         <f>+F5+1</f>
         <v>2013</v>
       </c>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17">
+      <c r="I5" s="20"/>
+      <c r="J5" s="20">
         <f>+H5+1</f>
         <v>2014</v>
       </c>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17">
+      <c r="K5" s="20"/>
+      <c r="L5" s="20">
         <f>+J5+1</f>
         <v>2015</v>
       </c>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17">
+      <c r="M5" s="20"/>
+      <c r="N5" s="20">
         <f>+L5+1</f>
         <v>2016</v>
       </c>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17">
+      <c r="O5" s="20"/>
+      <c r="P5" s="20">
         <f>+N5+1</f>
         <v>2017</v>
       </c>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17">
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20">
         <f>+P5+1</f>
         <v>2018</v>
       </c>
-      <c r="S5" s="17"/>
+      <c r="S5" s="20"/>
     </row>
     <row r="6" spans="1:19" ht="60">
       <c r="A6" s="6" t="s">
@@ -1768,17 +1770,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
     <mergeCell ref="L5:M5"/>
     <mergeCell ref="N5:O5"/>
     <mergeCell ref="P5:Q5"/>
     <mergeCell ref="R5:S5"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="J5:K5"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/Aguas_Residuais_e_Reutilizadas.xlsx
+++ b/data/Aguas_Residuais_e_Reutilizadas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vasco Abreu - PC\Documents\Python Projects\Matriz_Agua\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{483B1B82-4FFE-479E-9A49-EEDB4F36CA29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA43E212-3052-4604-9826-06FF3E571B93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8403A874-7223-4B91-BB02-E9EACE54EAC4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{8403A874-7223-4B91-BB02-E9EACE54EAC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Águas_Residuais_Tratadas" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="20">
   <si>
     <t>Designação:</t>
   </si>
@@ -138,12 +138,15 @@
   <si>
     <t>ETAR de Chelas</t>
   </si>
+  <si>
+    <t>www.lisboaenova.org | www.observatorios-lisboa.pt</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,8 +163,67 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF74BA9C"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF74BA9C"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF74BA9C"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1" tint="0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="1" tint="0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -192,8 +254,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -253,11 +327,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF74BA9C"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -295,6 +379,17 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -320,7 +415,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -334,6 +430,302 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>523874</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="5" name="Agrupar 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02DC5392-042A-4CC1-B459-F7A25AD32EF3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr>
+          <a:grpSpLocks noChangeAspect="1"/>
+        </xdr:cNvGrpSpPr>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="0" y="66675"/>
+          <a:ext cx="2733674" cy="590550"/>
+          <a:chOff x="571501" y="47625"/>
+          <a:chExt cx="2733674" cy="590550"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="6" name="Imagem 3" descr="Logo Observatórios Lisboa">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF32A831-75B0-413D-97BC-31AEEBCEA964}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+            <a:clrChange>
+              <a:clrFrom>
+                <a:srgbClr val="FFFFFF"/>
+              </a:clrFrom>
+              <a:clrTo>
+                <a:srgbClr val="FFFFFF">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:clrTo>
+            </a:clrChange>
+            <a:duotone>
+              <a:schemeClr val="bg2">
+                <a:shade val="45000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+              <a:prstClr val="white"/>
+            </a:duotone>
+            <a:extLst>
+              <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+                <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a14:imgLayer r:embed="rId2">
+                    <a14:imgEffect>
+                      <a14:brightnessContrast bright="73000" contrast="100000"/>
+                    </a14:imgEffect>
+                  </a14:imgLayer>
+                </a14:imgProps>
+              </a:ext>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="2105026" y="161927"/>
+            <a:ext cx="1200149" cy="398680"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="7" name="Imagem 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E5D2745-79F7-4CC6-9391-FB558BA560AC}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect t="10000"/>
+          <a:stretch/>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="571501" y="47625"/>
+            <a:ext cx="1235726" cy="590550"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="5" name="Agrupar 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1122C003-EE15-4612-A018-B265D8BD8844}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr>
+          <a:grpSpLocks noChangeAspect="1"/>
+        </xdr:cNvGrpSpPr>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="0" y="66675"/>
+          <a:ext cx="2733674" cy="590550"/>
+          <a:chOff x="571501" y="47625"/>
+          <a:chExt cx="2733674" cy="590550"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="6" name="Imagem 3" descr="Logo Observatórios Lisboa">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46EFE1FD-CA22-4226-AE85-F9DCAFFA8EE5}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+            <a:clrChange>
+              <a:clrFrom>
+                <a:srgbClr val="FFFFFF"/>
+              </a:clrFrom>
+              <a:clrTo>
+                <a:srgbClr val="FFFFFF">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:clrTo>
+            </a:clrChange>
+            <a:duotone>
+              <a:schemeClr val="bg2">
+                <a:shade val="45000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+              <a:prstClr val="white"/>
+            </a:duotone>
+            <a:extLst>
+              <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+                <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a14:imgLayer r:embed="rId2">
+                    <a14:imgEffect>
+                      <a14:brightnessContrast bright="73000" contrast="100000"/>
+                    </a14:imgEffect>
+                  </a14:imgLayer>
+                </a14:imgProps>
+              </a:ext>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="2105026" y="161927"/>
+            <a:ext cx="1200149" cy="398680"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="7" name="Imagem 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94EF9C2A-0C16-4C50-BA58-F233E67E8597}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect t="10000"/>
+          <a:stretch/>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="571501" y="47625"/>
+            <a:ext cx="1235726" cy="590550"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -633,10 +1025,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F8B7E92-B75B-420B-BB30-85873D3162DA}">
-  <dimension ref="A1:AG17"/>
+  <dimension ref="A1:AG21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -670,754 +1062,769 @@
     <col min="32" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:33" s="14" customFormat="1" ht="39" customHeight="1">
+      <c r="A1" s="13"/>
+    </row>
+    <row r="2" spans="1:33" s="17" customFormat="1">
+      <c r="A2" s="15"/>
+      <c r="B2" s="16"/>
+    </row>
+    <row r="3" spans="1:33" s="18" customFormat="1" ht="12.75">
+      <c r="A3" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+    </row>
+    <row r="5" spans="1:33">
+      <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B5" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-    </row>
-    <row r="2" spans="1:33" ht="17.25" customHeight="1">
-      <c r="A2" s="1" t="s">
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+    </row>
+    <row r="6" spans="1:33" ht="17.25" customHeight="1">
+      <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B6" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-    </row>
-    <row r="3" spans="1:33" ht="45.75" customHeight="1">
-      <c r="A3" s="8" t="s">
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+    </row>
+    <row r="7" spans="1:33" ht="45.75" customHeight="1">
+      <c r="A7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B7" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-    </row>
-    <row r="4" spans="1:33">
-      <c r="B4" s="7"/>
-    </row>
-    <row r="6" spans="1:33">
-      <c r="A6" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="13">
-        <v>2003</v>
-      </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="13">
-        <f>+B6+1</f>
-        <v>2004</v>
-      </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="13">
-        <f t="shared" ref="F6" si="0">+D6+1</f>
-        <v>2005</v>
-      </c>
-      <c r="G6" s="14"/>
-      <c r="H6" s="13">
-        <f t="shared" ref="H6" si="1">+F6+1</f>
-        <v>2006</v>
-      </c>
-      <c r="I6" s="14"/>
-      <c r="J6" s="13">
-        <f t="shared" ref="J6" si="2">+H6+1</f>
-        <v>2007</v>
-      </c>
-      <c r="K6" s="14"/>
-      <c r="L6" s="13">
-        <f t="shared" ref="L6" si="3">+J6+1</f>
-        <v>2008</v>
-      </c>
-      <c r="M6" s="14"/>
-      <c r="N6" s="13">
-        <f t="shared" ref="N6" si="4">+L6+1</f>
-        <v>2009</v>
-      </c>
-      <c r="O6" s="14"/>
-      <c r="P6" s="13">
-        <f t="shared" ref="P6" si="5">+N6+1</f>
-        <v>2010</v>
-      </c>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="13">
-        <f t="shared" ref="R6" si="6">+P6+1</f>
-        <v>2011</v>
-      </c>
-      <c r="S6" s="14"/>
-      <c r="T6" s="13">
-        <f t="shared" ref="T6" si="7">+R6+1</f>
-        <v>2012</v>
-      </c>
-      <c r="U6" s="14"/>
-      <c r="V6" s="13">
-        <f t="shared" ref="V6" si="8">+T6+1</f>
-        <v>2013</v>
-      </c>
-      <c r="W6" s="14"/>
-      <c r="X6" s="13">
-        <f t="shared" ref="X6" si="9">+V6+1</f>
-        <v>2014</v>
-      </c>
-      <c r="Y6" s="14"/>
-      <c r="Z6" s="13">
-        <f t="shared" ref="Z6" si="10">+X6+1</f>
-        <v>2015</v>
-      </c>
-      <c r="AA6" s="14"/>
-      <c r="AB6" s="13">
-        <f t="shared" ref="AB6" si="11">+Z6+1</f>
-        <v>2016</v>
-      </c>
-      <c r="AC6" s="14"/>
-      <c r="AD6" s="13">
-        <f t="shared" ref="AD6" si="12">+AB6+1</f>
-        <v>2017</v>
-      </c>
-      <c r="AE6" s="14"/>
-      <c r="AF6" s="13">
-        <f t="shared" ref="AF6" si="13">+AD6+1</f>
-        <v>2018</v>
-      </c>
-      <c r="AG6" s="14"/>
-    </row>
-    <row r="7" spans="1:33" ht="90">
-      <c r="A7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="P7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="R7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="S7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="T7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="U7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="V7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="W7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="X7" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y7" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z7" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA7" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB7" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC7" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="AD7" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="AE7" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF7" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="AG7" s="9" t="s">
-        <v>7</v>
-      </c>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
     </row>
     <row r="8" spans="1:33">
-      <c r="A8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="3">
-        <v>24937.644960000001</v>
-      </c>
-      <c r="C8" s="3">
-        <v>9697.9730400000008</v>
-      </c>
-      <c r="D8" s="3">
-        <v>23154.8544</v>
-      </c>
-      <c r="E8" s="3">
-        <v>9004.6656000000003</v>
-      </c>
-      <c r="F8" s="3">
-        <v>22898.0952</v>
-      </c>
-      <c r="G8" s="3">
-        <v>8904.8148000000001</v>
-      </c>
-      <c r="H8" s="3">
-        <v>25455.151368000003</v>
-      </c>
-      <c r="I8" s="3">
-        <v>9899.2255319999931</v>
-      </c>
-      <c r="J8" s="3">
-        <v>23249.721600000001</v>
-      </c>
-      <c r="K8" s="3">
-        <v>9041.5583999999999</v>
-      </c>
-      <c r="L8" s="3">
-        <v>25455.151368000003</v>
-      </c>
-      <c r="M8" s="3">
-        <v>6850.4386319999976</v>
-      </c>
-      <c r="N8" s="3">
-        <v>25545.490559999998</v>
-      </c>
-      <c r="O8" s="3">
-        <v>9934.3574399999998</v>
-      </c>
-      <c r="P8" s="3">
-        <v>28375.143120000001</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>11034.777880000001</v>
-      </c>
-      <c r="R8" s="3">
-        <v>39492.490760000001</v>
-      </c>
-      <c r="S8" s="3">
-        <v>11399.894240000001</v>
-      </c>
-      <c r="T8" s="3">
-        <v>39142.162455999998</v>
-      </c>
-      <c r="U8" s="3">
-        <v>11298.768544000006</v>
-      </c>
-      <c r="V8" s="3">
-        <v>41677.439815999998</v>
-      </c>
-      <c r="W8" s="3">
-        <v>12030.601184000006</v>
-      </c>
-      <c r="X8" s="3">
-        <v>46845</v>
-      </c>
-      <c r="Y8" s="3">
-        <v>13522</v>
-      </c>
-      <c r="Z8" s="3">
-        <v>38287.940340000001</v>
-      </c>
-      <c r="AA8" s="3">
-        <v>10799.162660000002</v>
-      </c>
-      <c r="AB8" s="3">
-        <v>44837.961479999998</v>
-      </c>
-      <c r="AC8" s="3">
-        <v>12646.604520000001</v>
-      </c>
-      <c r="AD8" s="3">
-        <v>39007.305</v>
-      </c>
-      <c r="AE8" s="3">
-        <v>11259.841</v>
-      </c>
-      <c r="AF8" s="3">
-        <v>40870.713000000003</v>
-      </c>
-      <c r="AG8" s="3">
-        <v>11797.732</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33">
-      <c r="A9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="3">
-        <v>5114.7124000000003</v>
-      </c>
-      <c r="C9" s="3">
-        <v>6004.2276000000002</v>
-      </c>
-      <c r="D9" s="3">
-        <v>6349.7848000000004</v>
-      </c>
-      <c r="E9" s="3">
-        <v>7454.0952000000007</v>
-      </c>
-      <c r="F9" s="3">
-        <v>5569.2107999999998</v>
-      </c>
-      <c r="G9" s="3">
-        <v>6537.7691999999997</v>
-      </c>
-      <c r="H9" s="3">
-        <v>6160.2740229999999</v>
-      </c>
-      <c r="I9" s="3">
-        <v>7231.6260270000002</v>
-      </c>
-      <c r="J9" s="3">
-        <v>5727.0184000000008</v>
-      </c>
-      <c r="K9" s="3">
-        <v>6723.0215999999991</v>
-      </c>
-      <c r="L9" s="3">
-        <v>6160.2740229999999</v>
-      </c>
-      <c r="M9" s="3">
-        <v>8329.0259770000011</v>
-      </c>
-      <c r="N9" s="3">
-        <v>7700.8554000000004</v>
-      </c>
-      <c r="O9" s="3">
-        <v>9040.1346000000012</v>
-      </c>
-      <c r="P9" s="3">
-        <v>8724.2726000000002</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>10241.537400000001</v>
-      </c>
-      <c r="R9" s="3">
-        <v>8464.3266000000003</v>
-      </c>
-      <c r="S9" s="3">
-        <v>9936.3833999999988</v>
-      </c>
-      <c r="T9" s="3">
-        <v>7334.6000451679902</v>
-      </c>
-      <c r="U9" s="3">
-        <v>8437.3799548320094</v>
-      </c>
-      <c r="V9" s="3">
-        <v>8310.9401417282097</v>
-      </c>
-      <c r="W9" s="3">
-        <v>8660.12985827179</v>
-      </c>
-      <c r="X9" s="3">
-        <v>8520</v>
-      </c>
-      <c r="Y9" s="3">
-        <v>8879</v>
-      </c>
-      <c r="Z9" s="3">
-        <v>8086.1078899999993</v>
-      </c>
-      <c r="AA9" s="3">
-        <v>8416.1531099999993</v>
-      </c>
-      <c r="AB9" s="3">
-        <v>8072.4597974999988</v>
-      </c>
-      <c r="AC9" s="3">
-        <v>8401.9479524999988</v>
-      </c>
-      <c r="AD9" s="3">
-        <v>6831.2860000000001</v>
-      </c>
-      <c r="AE9" s="3">
-        <v>7118.3069999999998</v>
-      </c>
-      <c r="AF9" s="3">
-        <v>7137.0439999999999</v>
-      </c>
-      <c r="AG9" s="3">
-        <v>7436.9110000000001</v>
-      </c>
+      <c r="B8" s="7"/>
     </row>
     <row r="10" spans="1:33">
       <c r="A10" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="20">
+        <v>2003</v>
+      </c>
+      <c r="C10" s="21"/>
+      <c r="D10" s="20">
+        <f>+B10+1</f>
+        <v>2004</v>
+      </c>
+      <c r="E10" s="21"/>
+      <c r="F10" s="20">
+        <f t="shared" ref="F10" si="0">+D10+1</f>
+        <v>2005</v>
+      </c>
+      <c r="G10" s="21"/>
+      <c r="H10" s="20">
+        <f t="shared" ref="H10" si="1">+F10+1</f>
+        <v>2006</v>
+      </c>
+      <c r="I10" s="21"/>
+      <c r="J10" s="20">
+        <f t="shared" ref="J10" si="2">+H10+1</f>
+        <v>2007</v>
+      </c>
+      <c r="K10" s="21"/>
+      <c r="L10" s="20">
+        <f t="shared" ref="L10" si="3">+J10+1</f>
+        <v>2008</v>
+      </c>
+      <c r="M10" s="21"/>
+      <c r="N10" s="20">
+        <f t="shared" ref="N10" si="4">+L10+1</f>
+        <v>2009</v>
+      </c>
+      <c r="O10" s="21"/>
+      <c r="P10" s="20">
+        <f t="shared" ref="P10" si="5">+N10+1</f>
+        <v>2010</v>
+      </c>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="20">
+        <f t="shared" ref="R10" si="6">+P10+1</f>
+        <v>2011</v>
+      </c>
+      <c r="S10" s="21"/>
+      <c r="T10" s="20">
+        <f t="shared" ref="T10" si="7">+R10+1</f>
+        <v>2012</v>
+      </c>
+      <c r="U10" s="21"/>
+      <c r="V10" s="20">
+        <f t="shared" ref="V10" si="8">+T10+1</f>
+        <v>2013</v>
+      </c>
+      <c r="W10" s="21"/>
+      <c r="X10" s="20">
+        <f t="shared" ref="X10" si="9">+V10+1</f>
+        <v>2014</v>
+      </c>
+      <c r="Y10" s="21"/>
+      <c r="Z10" s="20">
+        <f t="shared" ref="Z10" si="10">+X10+1</f>
+        <v>2015</v>
+      </c>
+      <c r="AA10" s="21"/>
+      <c r="AB10" s="20">
+        <f t="shared" ref="AB10" si="11">+Z10+1</f>
+        <v>2016</v>
+      </c>
+      <c r="AC10" s="21"/>
+      <c r="AD10" s="20">
+        <f t="shared" ref="AD10" si="12">+AB10+1</f>
+        <v>2017</v>
+      </c>
+      <c r="AE10" s="21"/>
+      <c r="AF10" s="20">
+        <f t="shared" ref="AF10" si="13">+AD10+1</f>
+        <v>2018</v>
+      </c>
+      <c r="AG10" s="21"/>
+    </row>
+    <row r="11" spans="1:33" ht="90">
+      <c r="A11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="R11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="S11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="T11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="U11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="V11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="X11" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y11" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z11" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA11" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB11" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC11" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD11" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE11" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF11" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG11" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33">
+      <c r="A12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="3">
+        <v>24937.644960000001</v>
+      </c>
+      <c r="C12" s="3">
+        <v>9697.9730400000008</v>
+      </c>
+      <c r="D12" s="3">
+        <v>23154.8544</v>
+      </c>
+      <c r="E12" s="3">
+        <v>9004.6656000000003</v>
+      </c>
+      <c r="F12" s="3">
+        <v>22898.0952</v>
+      </c>
+      <c r="G12" s="3">
+        <v>8904.8148000000001</v>
+      </c>
+      <c r="H12" s="3">
+        <v>25455.151368000003</v>
+      </c>
+      <c r="I12" s="3">
+        <v>9899.2255319999931</v>
+      </c>
+      <c r="J12" s="3">
+        <v>23249.721600000001</v>
+      </c>
+      <c r="K12" s="3">
+        <v>9041.5583999999999</v>
+      </c>
+      <c r="L12" s="3">
+        <v>25455.151368000003</v>
+      </c>
+      <c r="M12" s="3">
+        <v>6850.4386319999976</v>
+      </c>
+      <c r="N12" s="3">
+        <v>25545.490559999998</v>
+      </c>
+      <c r="O12" s="3">
+        <v>9934.3574399999998</v>
+      </c>
+      <c r="P12" s="3">
+        <v>28375.143120000001</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>11034.777880000001</v>
+      </c>
+      <c r="R12" s="3">
+        <v>39492.490760000001</v>
+      </c>
+      <c r="S12" s="3">
+        <v>11399.894240000001</v>
+      </c>
+      <c r="T12" s="3">
+        <v>39142.162455999998</v>
+      </c>
+      <c r="U12" s="3">
+        <v>11298.768544000006</v>
+      </c>
+      <c r="V12" s="3">
+        <v>41677.439815999998</v>
+      </c>
+      <c r="W12" s="3">
+        <v>12030.601184000006</v>
+      </c>
+      <c r="X12" s="3">
+        <v>46845</v>
+      </c>
+      <c r="Y12" s="3">
+        <v>13522</v>
+      </c>
+      <c r="Z12" s="3">
+        <v>38287.940340000001</v>
+      </c>
+      <c r="AA12" s="3">
+        <v>10799.162660000002</v>
+      </c>
+      <c r="AB12" s="3">
+        <v>44837.961479999998</v>
+      </c>
+      <c r="AC12" s="3">
+        <v>12646.604520000001</v>
+      </c>
+      <c r="AD12" s="3">
+        <v>39007.305</v>
+      </c>
+      <c r="AE12" s="3">
+        <v>11259.841</v>
+      </c>
+      <c r="AF12" s="3">
+        <v>40870.713000000003</v>
+      </c>
+      <c r="AG12" s="3">
+        <v>11797.732</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33">
+      <c r="A13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="3">
+        <v>5114.7124000000003</v>
+      </c>
+      <c r="C13" s="3">
+        <v>6004.2276000000002</v>
+      </c>
+      <c r="D13" s="3">
+        <v>6349.7848000000004</v>
+      </c>
+      <c r="E13" s="3">
+        <v>7454.0952000000007</v>
+      </c>
+      <c r="F13" s="3">
+        <v>5569.2107999999998</v>
+      </c>
+      <c r="G13" s="3">
+        <v>6537.7691999999997</v>
+      </c>
+      <c r="H13" s="3">
+        <v>6160.2740229999999</v>
+      </c>
+      <c r="I13" s="3">
+        <v>7231.6260270000002</v>
+      </c>
+      <c r="J13" s="3">
+        <v>5727.0184000000008</v>
+      </c>
+      <c r="K13" s="3">
+        <v>6723.0215999999991</v>
+      </c>
+      <c r="L13" s="3">
+        <v>6160.2740229999999</v>
+      </c>
+      <c r="M13" s="3">
+        <v>8329.0259770000011</v>
+      </c>
+      <c r="N13" s="3">
+        <v>7700.8554000000004</v>
+      </c>
+      <c r="O13" s="3">
+        <v>9040.1346000000012</v>
+      </c>
+      <c r="P13" s="3">
+        <v>8724.2726000000002</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>10241.537400000001</v>
+      </c>
+      <c r="R13" s="3">
+        <v>8464.3266000000003</v>
+      </c>
+      <c r="S13" s="3">
+        <v>9936.3833999999988</v>
+      </c>
+      <c r="T13" s="3">
+        <v>7334.6000451679902</v>
+      </c>
+      <c r="U13" s="3">
+        <v>8437.3799548320094</v>
+      </c>
+      <c r="V13" s="3">
+        <v>8310.9401417282097</v>
+      </c>
+      <c r="W13" s="3">
+        <v>8660.12985827179</v>
+      </c>
+      <c r="X13" s="3">
+        <v>8520</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>8879</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>8086.1078899999993</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>8416.1531099999993</v>
+      </c>
+      <c r="AB13" s="3">
+        <v>8072.4597974999988</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>8401.9479524999988</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>6831.2860000000001</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>7118.3069999999998</v>
+      </c>
+      <c r="AF13" s="3">
+        <v>7137.0439999999999</v>
+      </c>
+      <c r="AG13" s="3">
+        <v>7436.9110000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33">
+      <c r="A14" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B14" s="3">
         <v>13658.619000000001</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C14" s="3">
         <v>0</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D14" s="3">
         <v>13292.681</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E14" s="3">
         <v>0</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F14" s="3">
         <v>13070.539000000001</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G14" s="3">
         <v>0</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H14" s="3">
         <v>13069.5227</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I14" s="3">
         <v>0</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J14" s="3">
         <v>12696.4</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L14" s="3">
         <v>13690.210999999999</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N10" s="3">
+      <c r="N14" s="3">
         <v>14623.324000000001</v>
       </c>
-      <c r="O10" s="3">
+      <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P10" s="3">
+      <c r="P14" s="3">
         <v>15309.687</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="Q14" s="3">
         <v>0</v>
       </c>
-      <c r="R10" s="3">
+      <c r="R14" s="3">
         <v>14177.553</v>
       </c>
-      <c r="S10" s="3">
+      <c r="S14" s="3">
         <v>0</v>
       </c>
-      <c r="T10" s="3">
+      <c r="T14" s="3">
         <v>12374.471</v>
       </c>
-      <c r="U10" s="3">
+      <c r="U14" s="3">
         <v>0</v>
       </c>
-      <c r="V10" s="3">
+      <c r="V14" s="3">
         <v>14177.553</v>
       </c>
-      <c r="W10" s="3">
+      <c r="W14" s="3">
         <v>0</v>
       </c>
-      <c r="X10" s="3">
+      <c r="X14" s="3">
         <v>15607</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Y14" s="3">
         <v>0</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="Z14" s="3">
         <v>13736.422</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AA14" s="3">
         <v>0</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AB14" s="3">
         <v>15918.721</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AC14" s="3">
         <v>0</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AD14" s="3">
         <v>13580.957</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AE14" s="3">
         <v>0</v>
       </c>
-      <c r="AF10" s="3">
+      <c r="AF14" s="3">
         <v>12950.357</v>
       </c>
-      <c r="AG10" s="3">
+      <c r="AG14" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33">
-      <c r="A11" s="5" t="s">
+    <row r="15" spans="1:33">
+      <c r="A15" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="3">
-        <f>+B8+B9+B10</f>
+      <c r="B15" s="3">
+        <f>+B12+B13+B14</f>
         <v>43710.976360000001</v>
       </c>
-      <c r="C11" s="3">
-        <f>+C8+C9+C10</f>
+      <c r="C15" s="3">
+        <f>+C12+C13+C14</f>
         <v>15702.200640000001</v>
       </c>
-      <c r="D11" s="3">
-        <f t="shared" ref="D11:Y11" si="14">+D8+D9+D10</f>
+      <c r="D15" s="3">
+        <f t="shared" ref="D15:Y15" si="14">+D12+D13+D14</f>
         <v>42797.320200000002</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E15" s="3">
         <f t="shared" si="14"/>
         <v>16458.7608</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F15" s="3">
         <f t="shared" si="14"/>
         <v>41537.845000000001</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G15" s="3">
         <f t="shared" si="14"/>
         <v>15442.583999999999</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H15" s="3">
         <f t="shared" si="14"/>
         <v>44684.948091000006</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I15" s="3">
         <f t="shared" si="14"/>
         <v>17130.851558999995</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J15" s="3">
         <f t="shared" si="14"/>
         <v>41673.14</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K15" s="3">
         <f t="shared" si="14"/>
         <v>15764.579999999998</v>
       </c>
-      <c r="L11" s="3">
+      <c r="L15" s="3">
         <f t="shared" si="14"/>
         <v>45305.636391000007</v>
       </c>
-      <c r="M11" s="3">
+      <c r="M15" s="3">
         <f t="shared" si="14"/>
         <v>15179.464608999999</v>
       </c>
-      <c r="N11" s="3">
+      <c r="N15" s="3">
         <f t="shared" si="14"/>
         <v>47869.669959999999</v>
       </c>
-      <c r="O11" s="3">
+      <c r="O15" s="3">
         <f t="shared" si="14"/>
         <v>18974.492040000001</v>
       </c>
-      <c r="P11" s="3">
+      <c r="P15" s="3">
         <f t="shared" si="14"/>
         <v>52409.102720000003</v>
       </c>
-      <c r="Q11" s="3">
+      <c r="Q15" s="3">
         <f t="shared" si="14"/>
         <v>21276.315280000003</v>
       </c>
-      <c r="R11" s="3">
+      <c r="R15" s="3">
         <f t="shared" si="14"/>
         <v>62134.370360000001</v>
       </c>
-      <c r="S11" s="3">
+      <c r="S15" s="3">
         <f t="shared" si="14"/>
         <v>21336.27764</v>
       </c>
-      <c r="T11" s="3">
+      <c r="T15" s="3">
         <f t="shared" si="14"/>
         <v>58851.23350116799</v>
       </c>
-      <c r="U11" s="3">
+      <c r="U15" s="3">
         <f t="shared" si="14"/>
         <v>19736.148498832015</v>
       </c>
-      <c r="V11" s="3">
+      <c r="V15" s="3">
         <f t="shared" si="14"/>
         <v>64165.932957728204</v>
       </c>
-      <c r="W11" s="3">
+      <c r="W15" s="3">
         <f t="shared" si="14"/>
         <v>20690.731042271796</v>
       </c>
-      <c r="X11" s="3">
-        <f>+X8+X9+X10</f>
+      <c r="X15" s="3">
+        <f>+X12+X13+X14</f>
         <v>70972</v>
       </c>
-      <c r="Y11" s="3">
+      <c r="Y15" s="3">
         <f t="shared" si="14"/>
         <v>22401</v>
       </c>
-      <c r="Z11" s="3">
-        <f t="shared" ref="Z11:AG11" si="15">+Z8+Z9+Z10</f>
+      <c r="Z15" s="3">
+        <f t="shared" ref="Z15:AG15" si="15">+Z12+Z13+Z14</f>
         <v>60110.470229999999</v>
       </c>
-      <c r="AA11" s="3">
+      <c r="AA15" s="3">
         <f t="shared" si="15"/>
         <v>19215.315770000001</v>
       </c>
-      <c r="AB11" s="3">
+      <c r="AB15" s="3">
         <f t="shared" si="15"/>
         <v>68829.142277499996</v>
       </c>
-      <c r="AC11" s="3">
+      <c r="AC15" s="3">
         <f t="shared" si="15"/>
         <v>21048.5524725</v>
       </c>
-      <c r="AD11" s="3">
+      <c r="AD15" s="3">
         <f t="shared" si="15"/>
         <v>59419.548000000003</v>
       </c>
-      <c r="AE11" s="3">
+      <c r="AE15" s="3">
         <f t="shared" si="15"/>
         <v>18378.148000000001</v>
       </c>
-      <c r="AF11" s="3">
+      <c r="AF15" s="3">
         <f t="shared" si="15"/>
         <v>60958.114000000001</v>
       </c>
-      <c r="AG11" s="3">
+      <c r="AG15" s="3">
         <f t="shared" si="15"/>
         <v>19234.643</v>
       </c>
     </row>
-    <row r="12" spans="1:33">
-      <c r="X12"/>
-      <c r="Y12"/>
-      <c r="Z12"/>
-      <c r="AA12"/>
-      <c r="AB12"/>
-      <c r="AC12"/>
-      <c r="AD12"/>
-      <c r="AE12"/>
-      <c r="AF12"/>
-      <c r="AG12"/>
-    </row>
-    <row r="13" spans="1:33">
-      <c r="X13"/>
-      <c r="Y13"/>
-      <c r="Z13"/>
-      <c r="AA13"/>
-      <c r="AB13"/>
-      <c r="AC13"/>
-      <c r="AD13"/>
-      <c r="AE13"/>
-      <c r="AF13"/>
-      <c r="AG13"/>
-    </row>
-    <row r="14" spans="1:33">
-      <c r="X14"/>
-      <c r="Y14"/>
-      <c r="Z14"/>
-      <c r="AA14"/>
-      <c r="AB14"/>
-      <c r="AC14"/>
-      <c r="AD14"/>
-      <c r="AE14"/>
-      <c r="AF14"/>
-      <c r="AG14"/>
-    </row>
-    <row r="15" spans="1:33">
-      <c r="X15"/>
-      <c r="Y15"/>
-    </row>
-    <row r="17" spans="8:11">
-      <c r="H17" s="12"/>
-      <c r="K17" s="12"/>
+    <row r="16" spans="1:33">
+      <c r="X16"/>
+      <c r="Y16"/>
+      <c r="Z16"/>
+      <c r="AA16"/>
+      <c r="AB16"/>
+      <c r="AC16"/>
+      <c r="AD16"/>
+      <c r="AE16"/>
+      <c r="AF16"/>
+      <c r="AG16"/>
+    </row>
+    <row r="17" spans="8:33">
+      <c r="X17"/>
+      <c r="Y17"/>
+      <c r="Z17"/>
+      <c r="AA17"/>
+      <c r="AB17"/>
+      <c r="AC17"/>
+      <c r="AD17"/>
+      <c r="AE17"/>
+      <c r="AF17"/>
+      <c r="AG17"/>
+    </row>
+    <row r="18" spans="8:33">
+      <c r="X18"/>
+      <c r="Y18"/>
+      <c r="Z18"/>
+      <c r="AA18"/>
+      <c r="AB18"/>
+      <c r="AC18"/>
+      <c r="AD18"/>
+      <c r="AE18"/>
+      <c r="AF18"/>
+      <c r="AG18"/>
+    </row>
+    <row r="19" spans="8:33">
+      <c r="X19"/>
+      <c r="Y19"/>
+    </row>
+    <row r="21" spans="8:33">
+      <c r="H21" s="12"/>
+      <c r="K21" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="X6:Y6"/>
-    <mergeCell ref="Z6:AA6"/>
-    <mergeCell ref="AB6:AC6"/>
-    <mergeCell ref="AD6:AE6"/>
-    <mergeCell ref="AF6:AG6"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="B5:J5"/>
+    <mergeCell ref="B6:J6"/>
+    <mergeCell ref="X10:Y10"/>
+    <mergeCell ref="Z10:AA10"/>
+    <mergeCell ref="AB10:AC10"/>
+    <mergeCell ref="AD10:AE10"/>
+    <mergeCell ref="AF10:AG10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3CA178A-8F60-41A4-973C-2117B460DD51}">
-  <dimension ref="A1:S31"/>
+  <dimension ref="A1:S35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1439,232 +1846,222 @@
     <col min="27" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="57" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:19" s="14" customFormat="1" ht="39" customHeight="1">
+      <c r="A1" s="13"/>
+    </row>
+    <row r="2" spans="1:19" s="17" customFormat="1">
+      <c r="A2" s="15"/>
+      <c r="B2" s="16"/>
+    </row>
+    <row r="3" spans="1:19" s="18" customFormat="1" ht="12.75">
+      <c r="A3" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+    </row>
+    <row r="5" spans="1:19" ht="57" customHeight="1">
+      <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B5" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="19"/>
-    </row>
-    <row r="2" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A2" s="1" t="s">
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="26"/>
+    </row>
+    <row r="6" spans="1:19" ht="17.25" customHeight="1">
+      <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B6" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-    </row>
-    <row r="4" spans="1:19">
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-    </row>
-    <row r="5" spans="1:19">
-      <c r="A5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="20">
-        <v>2010</v>
-      </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20">
-        <f>+B5+1</f>
-        <v>2011</v>
-      </c>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20">
-        <f>+D5+1</f>
-        <v>2012</v>
-      </c>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20">
-        <f>+F5+1</f>
-        <v>2013</v>
-      </c>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20">
-        <f>+H5+1</f>
-        <v>2014</v>
-      </c>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20">
-        <f>+J5+1</f>
-        <v>2015</v>
-      </c>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20">
-        <f>+L5+1</f>
-        <v>2016</v>
-      </c>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20">
-        <f>+N5+1</f>
-        <v>2017</v>
-      </c>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20">
-        <f>+P5+1</f>
-        <v>2018</v>
-      </c>
-      <c r="S5" s="20"/>
-    </row>
-    <row r="6" spans="1:19" ht="60">
-      <c r="A6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="R6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="S6" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19">
-      <c r="A7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="3">
-        <v>1329.9970000000001</v>
-      </c>
-      <c r="C7" s="3">
-        <v>7.9760000000000009</v>
-      </c>
-      <c r="D7" s="3">
-        <v>1235.7539999999999</v>
-      </c>
-      <c r="E7" s="3">
-        <v>13.025</v>
-      </c>
-      <c r="F7" s="3">
-        <v>1287.3909999999998</v>
-      </c>
-      <c r="G7" s="3">
-        <v>14.127000000000001</v>
-      </c>
-      <c r="H7" s="3">
-        <v>1399.029</v>
-      </c>
-      <c r="I7" s="3">
-        <v>24.733000000000001</v>
-      </c>
-      <c r="J7" s="3">
-        <v>1525.3410000000001</v>
-      </c>
-      <c r="K7" s="3">
-        <v>23.637999999999998</v>
-      </c>
-      <c r="L7" s="3">
-        <v>1551.2220000000002</v>
-      </c>
-      <c r="M7" s="3">
-        <v>32.918000000000006</v>
-      </c>
-      <c r="N7" s="3">
-        <v>1508.0359999999998</v>
-      </c>
-      <c r="O7" s="3">
-        <v>23.873999999999999</v>
-      </c>
-      <c r="P7" s="3">
-        <v>1555.3760000000002</v>
-      </c>
-      <c r="Q7" s="3">
-        <v>19.035</v>
-      </c>
-      <c r="R7" s="3">
-        <v>1716.7570000000001</v>
-      </c>
-      <c r="S7" s="3">
-        <v>15.533999999999999</v>
-      </c>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
     </row>
     <row r="8" spans="1:19">
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
-      <c r="D8" s="11"/>
+      <c r="D8" s="10"/>
       <c r="E8" s="10"/>
     </row>
     <row r="9" spans="1:19">
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="10"/>
-    </row>
-    <row r="10" spans="1:19">
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="10"/>
+      <c r="A9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="27">
+        <v>2010</v>
+      </c>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27">
+        <f>+B9+1</f>
+        <v>2011</v>
+      </c>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27">
+        <f>+D9+1</f>
+        <v>2012</v>
+      </c>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27">
+        <f>+F9+1</f>
+        <v>2013</v>
+      </c>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27">
+        <f>+H9+1</f>
+        <v>2014</v>
+      </c>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27">
+        <f>+J9+1</f>
+        <v>2015</v>
+      </c>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27">
+        <f>+L9+1</f>
+        <v>2016</v>
+      </c>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27">
+        <f>+N9+1</f>
+        <v>2017</v>
+      </c>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="27">
+        <f>+P9+1</f>
+        <v>2018</v>
+      </c>
+      <c r="S9" s="27"/>
+    </row>
+    <row r="10" spans="1:19" ht="60">
+      <c r="A10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="11" spans="1:19">
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="10"/>
+      <c r="A11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1329.9970000000001</v>
+      </c>
+      <c r="C11" s="3">
+        <v>7.9760000000000009</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1235.7539999999999</v>
+      </c>
+      <c r="E11" s="3">
+        <v>13.025</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1287.3909999999998</v>
+      </c>
+      <c r="G11" s="3">
+        <v>14.127000000000001</v>
+      </c>
+      <c r="H11" s="3">
+        <v>1399.029</v>
+      </c>
+      <c r="I11" s="3">
+        <v>24.733000000000001</v>
+      </c>
+      <c r="J11" s="3">
+        <v>1525.3410000000001</v>
+      </c>
+      <c r="K11" s="3">
+        <v>23.637999999999998</v>
+      </c>
+      <c r="L11" s="3">
+        <v>1551.2220000000002</v>
+      </c>
+      <c r="M11" s="3">
+        <v>32.918000000000006</v>
+      </c>
+      <c r="N11" s="3">
+        <v>1508.0359999999998</v>
+      </c>
+      <c r="O11" s="3">
+        <v>23.873999999999999</v>
+      </c>
+      <c r="P11" s="3">
+        <v>1555.3760000000002</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>19.035</v>
+      </c>
+      <c r="R11" s="3">
+        <v>1716.7570000000001</v>
+      </c>
+      <c r="S11" s="3">
+        <v>15.533999999999999</v>
+      </c>
     </row>
     <row r="12" spans="1:19">
       <c r="B12" s="10"/>
@@ -1678,30 +2075,30 @@
       <c r="D13" s="11"/>
       <c r="E13" s="10"/>
     </row>
+    <row r="14" spans="1:19">
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="10"/>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="10"/>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="10"/>
+    </row>
     <row r="17" spans="2:5">
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
       <c r="D17" s="11"/>
       <c r="E17" s="10"/>
     </row>
-    <row r="18" spans="2:5">
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="10"/>
-    </row>
-    <row r="19" spans="2:5">
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="10"/>
-    </row>
-    <row r="20" spans="2:5">
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="10"/>
-    </row>
     <row r="21" spans="2:5">
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
@@ -1711,25 +2108,25 @@
     <row r="22" spans="2:5">
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
+      <c r="D22" s="11"/>
       <c r="E22" s="10"/>
     </row>
     <row r="23" spans="2:5">
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
+      <c r="D23" s="11"/>
       <c r="E23" s="10"/>
     </row>
     <row r="24" spans="2:5">
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
+      <c r="D24" s="11"/>
       <c r="E24" s="10"/>
     </row>
     <row r="25" spans="2:5">
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
+      <c r="D25" s="11"/>
       <c r="E25" s="10"/>
     </row>
     <row r="26" spans="2:5">
@@ -1768,20 +2165,45 @@
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
     </row>
+    <row r="32" spans="2:5">
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+    </row>
+    <row r="35" spans="2:5">
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+    </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/Aguas_Residuais_e_Reutilizadas.xlsx
+++ b/data/Aguas_Residuais_e_Reutilizadas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vasco Abreu - PC\Documents\Python Projects\Matriz_Agua\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA43E212-3052-4604-9826-06FF3E571B93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EA0CB11-6FA8-42D3-BC41-530FA66B0EFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{8403A874-7223-4B91-BB02-E9EACE54EAC4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8403A874-7223-4B91-BB02-E9EACE54EAC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Águas_Residuais_Tratadas" sheetId="2" r:id="rId1"/>
@@ -402,6 +402,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -410,9 +413,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1027,7 +1027,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F8B7E92-B75B-420B-BB30-85873D3162DA}">
   <dimension ref="A1:AG21"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
@@ -1794,6 +1794,17 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="X10:Y10"/>
+    <mergeCell ref="Z10:AA10"/>
+    <mergeCell ref="AB10:AC10"/>
+    <mergeCell ref="AD10:AE10"/>
+    <mergeCell ref="AF10:AG10"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="B5:J5"/>
+    <mergeCell ref="B6:J6"/>
     <mergeCell ref="T10:U10"/>
     <mergeCell ref="V10:W10"/>
     <mergeCell ref="H10:I10"/>
@@ -1802,17 +1813,6 @@
     <mergeCell ref="N10:O10"/>
     <mergeCell ref="P10:Q10"/>
     <mergeCell ref="R10:S10"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="B5:J5"/>
-    <mergeCell ref="B6:J6"/>
-    <mergeCell ref="X10:Y10"/>
-    <mergeCell ref="Z10:AA10"/>
-    <mergeCell ref="AB10:AC10"/>
-    <mergeCell ref="AD10:AE10"/>
-    <mergeCell ref="AF10:AG10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1823,7 +1823,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3CA178A-8F60-41A4-973C-2117B460DD51}">
   <dimension ref="A1:S35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
@@ -1864,16 +1864,16 @@
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="27"/>
     </row>
     <row r="6" spans="1:19" ht="17.25" customHeight="1">
       <c r="A6" s="1" t="s">
@@ -1900,50 +1900,50 @@
       <c r="A9" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="27">
+      <c r="B9" s="24">
         <v>2010</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27">
+      <c r="C9" s="24"/>
+      <c r="D9" s="24">
         <f>+B9+1</f>
         <v>2011</v>
       </c>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27">
+      <c r="E9" s="24"/>
+      <c r="F9" s="24">
         <f>+D9+1</f>
         <v>2012</v>
       </c>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27">
+      <c r="G9" s="24"/>
+      <c r="H9" s="24">
         <f>+F9+1</f>
         <v>2013</v>
       </c>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27">
+      <c r="I9" s="24"/>
+      <c r="J9" s="24">
         <f>+H9+1</f>
         <v>2014</v>
       </c>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27">
+      <c r="K9" s="24"/>
+      <c r="L9" s="24">
         <f>+J9+1</f>
         <v>2015</v>
       </c>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27">
+      <c r="M9" s="24"/>
+      <c r="N9" s="24">
         <f>+L9+1</f>
         <v>2016</v>
       </c>
-      <c r="O9" s="27"/>
-      <c r="P9" s="27">
+      <c r="O9" s="24"/>
+      <c r="P9" s="24">
         <f>+N9+1</f>
         <v>2017</v>
       </c>
-      <c r="Q9" s="27"/>
-      <c r="R9" s="27">
+      <c r="Q9" s="24"/>
+      <c r="R9" s="24">
         <f>+P9+1</f>
         <v>2018</v>
       </c>
-      <c r="S9" s="27"/>
+      <c r="S9" s="24"/>
     </row>
     <row r="10" spans="1:19" ht="60">
       <c r="A10" s="6" t="s">
@@ -2191,17 +2191,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="N9:O9"/>
     <mergeCell ref="P9:Q9"/>
     <mergeCell ref="R9:S9"/>
     <mergeCell ref="B6:I6"/>
     <mergeCell ref="J9:K9"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/data/Aguas_Residuais_e_Reutilizadas.xlsx
+++ b/data/Aguas_Residuais_e_Reutilizadas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vasco Abreu - PC\Documents\Python Projects\Matriz_Agua\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vasco Abreu - PC\Documents\Python Projects\matrizagua\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EA0CB11-6FA8-42D3-BC41-530FA66B0EFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6401092-BE9E-4514-B9ED-BD26FAAAFD26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8403A874-7223-4B91-BB02-E9EACE54EAC4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{8403A874-7223-4B91-BB02-E9EACE54EAC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Águas_Residuais_Tratadas" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="20">
   <si>
     <t>Designação:</t>
   </si>
@@ -146,6 +146,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="#,##0.000000"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00000"/>
+  </numFmts>
   <fonts count="10">
     <font>
       <sz val="11"/>
@@ -341,7 +345,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -390,6 +394,9 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -402,9 +409,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -414,6 +418,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -463,7 +472,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="0" y="66675"/>
-          <a:ext cx="2733674" cy="590550"/>
+          <a:ext cx="2794634" cy="590550"/>
           <a:chOff x="571501" y="47625"/>
           <a:chExt cx="2733674" cy="590550"/>
         </a:xfrm>
@@ -611,7 +620,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="0" y="66675"/>
-          <a:ext cx="2733674" cy="590550"/>
+          <a:ext cx="2802254" cy="590550"/>
           <a:chOff x="571501" y="47625"/>
           <a:chExt cx="2733674" cy="590550"/>
         </a:xfrm>
@@ -1025,32 +1034,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F8B7E92-B75B-420B-BB30-85873D3162DA}">
-  <dimension ref="A1:AG21"/>
+  <dimension ref="A1:AI24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" style="2" customWidth="1"/>
-    <col min="2" max="4" width="12.5703125" style="2" customWidth="1"/>
-    <col min="5" max="7" width="11.85546875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="2" customWidth="1"/>
-    <col min="10" max="11" width="13.140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="20.5546875" style="2" customWidth="1"/>
+    <col min="2" max="4" width="12.5546875" style="2" customWidth="1"/>
+    <col min="5" max="7" width="11.88671875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="13.109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" style="2" customWidth="1"/>
+    <col min="10" max="11" width="13.109375" style="2" customWidth="1"/>
     <col min="12" max="12" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" style="2" customWidth="1"/>
     <col min="14" max="14" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.5703125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="12.5546875" style="2" customWidth="1"/>
     <col min="16" max="16" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.85546875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="12.88671875" style="2" customWidth="1"/>
     <col min="18" max="18" width="12" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="13" style="2" customWidth="1"/>
     <col min="20" max="20" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.85546875" style="2" customWidth="1"/>
+    <col min="21" max="21" width="12.88671875" style="2" customWidth="1"/>
     <col min="22" max="22" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.28515625" style="2" customWidth="1"/>
+    <col min="23" max="23" width="12.33203125" style="2" customWidth="1"/>
     <col min="24" max="24" width="12" style="2" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="12" style="2" bestFit="1" customWidth="1"/>
@@ -1059,159 +1068,164 @@
     <col min="29" max="29" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="12" style="2" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="2"/>
+    <col min="32" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="14" customFormat="1" ht="39" customHeight="1">
+    <row r="1" spans="1:35" s="14" customFormat="1" ht="39" customHeight="1">
       <c r="A1" s="13"/>
     </row>
-    <row r="2" spans="1:33" s="17" customFormat="1">
+    <row r="2" spans="1:35" s="17" customFormat="1">
       <c r="A2" s="15"/>
       <c r="B2" s="16"/>
     </row>
-    <row r="3" spans="1:33" s="18" customFormat="1" ht="12.75">
+    <row r="3" spans="1:35" s="18" customFormat="1" ht="13.8">
       <c r="A3" s="18" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="19"/>
       <c r="D3" s="19"/>
     </row>
-    <row r="5" spans="1:33">
+    <row r="5" spans="1:35">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-    </row>
-    <row r="6" spans="1:33" ht="17.25" customHeight="1">
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+    </row>
+    <row r="6" spans="1:35" ht="17.25" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-    </row>
-    <row r="7" spans="1:33" ht="45.75" customHeight="1">
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+    </row>
+    <row r="7" spans="1:35" ht="45.75" customHeight="1">
       <c r="A7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-    </row>
-    <row r="8" spans="1:33">
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+    </row>
+    <row r="8" spans="1:35">
       <c r="B8" s="7"/>
     </row>
-    <row r="10" spans="1:33">
+    <row r="10" spans="1:35">
       <c r="A10" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="20">
+      <c r="B10" s="21">
         <v>2003</v>
       </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="20">
+      <c r="C10" s="22"/>
+      <c r="D10" s="21">
         <f>+B10+1</f>
         <v>2004</v>
       </c>
-      <c r="E10" s="21"/>
-      <c r="F10" s="20">
+      <c r="E10" s="22"/>
+      <c r="F10" s="21">
         <f t="shared" ref="F10" si="0">+D10+1</f>
         <v>2005</v>
       </c>
-      <c r="G10" s="21"/>
-      <c r="H10" s="20">
+      <c r="G10" s="22"/>
+      <c r="H10" s="21">
         <f t="shared" ref="H10" si="1">+F10+1</f>
         <v>2006</v>
       </c>
-      <c r="I10" s="21"/>
-      <c r="J10" s="20">
+      <c r="I10" s="22"/>
+      <c r="J10" s="21">
         <f t="shared" ref="J10" si="2">+H10+1</f>
         <v>2007</v>
       </c>
-      <c r="K10" s="21"/>
-      <c r="L10" s="20">
+      <c r="K10" s="22"/>
+      <c r="L10" s="21">
         <f t="shared" ref="L10" si="3">+J10+1</f>
         <v>2008</v>
       </c>
-      <c r="M10" s="21"/>
-      <c r="N10" s="20">
+      <c r="M10" s="22"/>
+      <c r="N10" s="21">
         <f t="shared" ref="N10" si="4">+L10+1</f>
         <v>2009</v>
       </c>
-      <c r="O10" s="21"/>
-      <c r="P10" s="20">
+      <c r="O10" s="22"/>
+      <c r="P10" s="21">
         <f t="shared" ref="P10" si="5">+N10+1</f>
         <v>2010</v>
       </c>
-      <c r="Q10" s="21"/>
-      <c r="R10" s="20">
+      <c r="Q10" s="22"/>
+      <c r="R10" s="21">
         <f t="shared" ref="R10" si="6">+P10+1</f>
         <v>2011</v>
       </c>
-      <c r="S10" s="21"/>
-      <c r="T10" s="20">
+      <c r="S10" s="22"/>
+      <c r="T10" s="21">
         <f t="shared" ref="T10" si="7">+R10+1</f>
         <v>2012</v>
       </c>
-      <c r="U10" s="21"/>
-      <c r="V10" s="20">
+      <c r="U10" s="22"/>
+      <c r="V10" s="21">
         <f t="shared" ref="V10" si="8">+T10+1</f>
         <v>2013</v>
       </c>
-      <c r="W10" s="21"/>
-      <c r="X10" s="20">
+      <c r="W10" s="22"/>
+      <c r="X10" s="21">
         <f t="shared" ref="X10" si="9">+V10+1</f>
         <v>2014</v>
       </c>
-      <c r="Y10" s="21"/>
-      <c r="Z10" s="20">
+      <c r="Y10" s="22"/>
+      <c r="Z10" s="21">
         <f t="shared" ref="Z10" si="10">+X10+1</f>
         <v>2015</v>
       </c>
-      <c r="AA10" s="21"/>
-      <c r="AB10" s="20">
+      <c r="AA10" s="22"/>
+      <c r="AB10" s="21">
         <f t="shared" ref="AB10" si="11">+Z10+1</f>
         <v>2016</v>
       </c>
-      <c r="AC10" s="21"/>
-      <c r="AD10" s="20">
+      <c r="AC10" s="22"/>
+      <c r="AD10" s="21">
         <f t="shared" ref="AD10" si="12">+AB10+1</f>
         <v>2017</v>
       </c>
-      <c r="AE10" s="21"/>
-      <c r="AF10" s="20">
+      <c r="AE10" s="22"/>
+      <c r="AF10" s="21">
         <f t="shared" ref="AF10" si="13">+AD10+1</f>
         <v>2018</v>
       </c>
-      <c r="AG10" s="21"/>
-    </row>
-    <row r="11" spans="1:33" ht="90">
+      <c r="AG10" s="22"/>
+      <c r="AH10" s="21">
+        <f t="shared" ref="AH10" si="14">+AF10+1</f>
+        <v>2019</v>
+      </c>
+      <c r="AI10" s="22"/>
+    </row>
+    <row r="11" spans="1:35" ht="86.4">
       <c r="A11" s="6" t="s">
         <v>10</v>
       </c>
@@ -1311,8 +1325,14 @@
       <c r="AG11" s="9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:33">
+      <c r="AH11" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI11" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35">
       <c r="A12" s="5" t="s">
         <v>16</v>
       </c>
@@ -1412,8 +1432,14 @@
       <c r="AG12" s="3">
         <v>11797.732</v>
       </c>
-    </row>
-    <row r="13" spans="1:33">
+      <c r="AH12" s="3">
+        <v>37690.936999999998</v>
+      </c>
+      <c r="AI12" s="3">
+        <v>10879.859</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35">
       <c r="A13" s="5" t="s">
         <v>17</v>
       </c>
@@ -1513,8 +1539,14 @@
       <c r="AG13" s="3">
         <v>7436.9110000000001</v>
       </c>
-    </row>
-    <row r="14" spans="1:33">
+      <c r="AH13" s="3">
+        <v>6909.4376741636661</v>
+      </c>
+      <c r="AI13" s="3">
+        <v>7199.7419999999993</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35">
       <c r="A14" s="5" t="s">
         <v>18</v>
       </c>
@@ -1614,8 +1646,14 @@
       <c r="AG14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:33">
+      <c r="AH14" s="3">
+        <v>12240.07</v>
+      </c>
+      <c r="AI14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35">
       <c r="A15" s="5" t="s">
         <v>4</v>
       </c>
@@ -1628,83 +1666,83 @@
         <v>15702.200640000001</v>
       </c>
       <c r="D15" s="3">
-        <f t="shared" ref="D15:Y15" si="14">+D12+D13+D14</f>
+        <f t="shared" ref="D15:Y15" si="15">+D12+D13+D14</f>
         <v>42797.320200000002</v>
       </c>
       <c r="E15" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>16458.7608</v>
       </c>
       <c r="F15" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>41537.845000000001</v>
       </c>
       <c r="G15" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>15442.583999999999</v>
       </c>
       <c r="H15" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>44684.948091000006</v>
       </c>
       <c r="I15" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>17130.851558999995</v>
       </c>
       <c r="J15" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>41673.14</v>
       </c>
       <c r="K15" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>15764.579999999998</v>
       </c>
       <c r="L15" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>45305.636391000007</v>
       </c>
       <c r="M15" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>15179.464608999999</v>
       </c>
       <c r="N15" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>47869.669959999999</v>
       </c>
       <c r="O15" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>18974.492040000001</v>
       </c>
       <c r="P15" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>52409.102720000003</v>
       </c>
       <c r="Q15" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>21276.315280000003</v>
       </c>
       <c r="R15" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>62134.370360000001</v>
       </c>
       <c r="S15" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>21336.27764</v>
       </c>
       <c r="T15" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>58851.23350116799</v>
       </c>
       <c r="U15" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>19736.148498832015</v>
       </c>
       <c r="V15" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>64165.932957728204</v>
       </c>
       <c r="W15" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>20690.731042271796</v>
       </c>
       <c r="X15" s="3">
@@ -1712,43 +1750,51 @@
         <v>70972</v>
       </c>
       <c r="Y15" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>22401</v>
       </c>
       <c r="Z15" s="3">
-        <f t="shared" ref="Z15:AG15" si="15">+Z12+Z13+Z14</f>
+        <f t="shared" ref="Z15:AI15" si="16">+Z12+Z13+Z14</f>
         <v>60110.470229999999</v>
       </c>
       <c r="AA15" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>19215.315770000001</v>
       </c>
       <c r="AB15" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>68829.142277499996</v>
       </c>
       <c r="AC15" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>21048.5524725</v>
       </c>
       <c r="AD15" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>59419.548000000003</v>
       </c>
       <c r="AE15" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>18378.148000000001</v>
       </c>
       <c r="AF15" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>60958.114000000001</v>
       </c>
       <c r="AG15" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>19234.643</v>
       </c>
-    </row>
-    <row r="16" spans="1:33">
+      <c r="AH15" s="3">
+        <f t="shared" si="16"/>
+        <v>56840.444674163664</v>
+      </c>
+      <c r="AI15" s="3">
+        <f t="shared" si="16"/>
+        <v>18079.600999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35">
       <c r="X16"/>
       <c r="Y16"/>
       <c r="Z16"/>
@@ -1791,20 +1837,20 @@
     <row r="21" spans="8:33">
       <c r="H21" s="12"/>
       <c r="K21" s="12"/>
+      <c r="AF21"/>
+    </row>
+    <row r="22" spans="8:33">
+      <c r="AF22"/>
+    </row>
+    <row r="23" spans="8:33">
+      <c r="AF23"/>
+    </row>
+    <row r="24" spans="8:33">
+      <c r="AF24"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="X10:Y10"/>
-    <mergeCell ref="Z10:AA10"/>
-    <mergeCell ref="AB10:AC10"/>
-    <mergeCell ref="AD10:AE10"/>
-    <mergeCell ref="AF10:AG10"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="B5:J5"/>
-    <mergeCell ref="B6:J6"/>
+  <mergeCells count="20">
+    <mergeCell ref="AH10:AI10"/>
     <mergeCell ref="T10:U10"/>
     <mergeCell ref="V10:W10"/>
     <mergeCell ref="H10:I10"/>
@@ -1813,6 +1859,17 @@
     <mergeCell ref="N10:O10"/>
     <mergeCell ref="P10:Q10"/>
     <mergeCell ref="R10:S10"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="B5:J5"/>
+    <mergeCell ref="B6:J6"/>
+    <mergeCell ref="X10:Y10"/>
+    <mergeCell ref="Z10:AA10"/>
+    <mergeCell ref="AB10:AC10"/>
+    <mergeCell ref="AD10:AE10"/>
+    <mergeCell ref="AF10:AG10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1821,46 +1878,46 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3CA178A-8F60-41A4-973C-2117B460DD51}">
-  <dimension ref="A1:S35"/>
+  <dimension ref="A1:U35"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" style="2" customWidth="1"/>
     <col min="4" max="4" width="15" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" style="2" customWidth="1"/>
-    <col min="10" max="12" width="13.85546875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="14.140625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="13.85546875" style="2" customWidth="1"/>
-    <col min="15" max="15" width="15.28515625" style="2" customWidth="1"/>
-    <col min="16" max="26" width="13.85546875" style="2" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="2"/>
+    <col min="5" max="5" width="14.5546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="14.5546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="14.109375" style="2" customWidth="1"/>
+    <col min="10" max="12" width="13.88671875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="14.109375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="13.88671875" style="2" customWidth="1"/>
+    <col min="15" max="15" width="15.33203125" style="2" customWidth="1"/>
+    <col min="16" max="26" width="13.88671875" style="2" customWidth="1"/>
+    <col min="27" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="14" customFormat="1" ht="39" customHeight="1">
+    <row r="1" spans="1:21" s="14" customFormat="1" ht="39" customHeight="1">
       <c r="A1" s="13"/>
     </row>
-    <row r="2" spans="1:19" s="17" customFormat="1">
+    <row r="2" spans="1:21" s="17" customFormat="1">
       <c r="A2" s="15"/>
       <c r="B2" s="16"/>
     </row>
-    <row r="3" spans="1:19" s="18" customFormat="1" ht="12.75">
+    <row r="3" spans="1:21" s="18" customFormat="1" ht="13.8">
       <c r="A3" s="18" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="19"/>
       <c r="D3" s="19"/>
     </row>
-    <row r="5" spans="1:19" ht="57" customHeight="1">
+    <row r="5" spans="1:21" ht="57" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1875,77 +1932,82 @@
       <c r="H5" s="26"/>
       <c r="I5" s="27"/>
     </row>
-    <row r="6" spans="1:19" ht="17.25" customHeight="1">
+    <row r="6" spans="1:21" ht="17.25" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-    </row>
-    <row r="8" spans="1:19">
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+    </row>
+    <row r="8" spans="1:21">
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:21">
       <c r="A9" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="24">
+      <c r="B9" s="28">
         <v>2010</v>
       </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24">
+      <c r="C9" s="28"/>
+      <c r="D9" s="28">
         <f>+B9+1</f>
         <v>2011</v>
       </c>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24">
+      <c r="E9" s="28"/>
+      <c r="F9" s="28">
         <f>+D9+1</f>
         <v>2012</v>
       </c>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24">
+      <c r="G9" s="28"/>
+      <c r="H9" s="28">
         <f>+F9+1</f>
         <v>2013</v>
       </c>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24">
+      <c r="I9" s="28"/>
+      <c r="J9" s="28">
         <f>+H9+1</f>
         <v>2014</v>
       </c>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24">
+      <c r="K9" s="28"/>
+      <c r="L9" s="28">
         <f>+J9+1</f>
         <v>2015</v>
       </c>
-      <c r="M9" s="24"/>
-      <c r="N9" s="24">
+      <c r="M9" s="28"/>
+      <c r="N9" s="28">
         <f>+L9+1</f>
         <v>2016</v>
       </c>
-      <c r="O9" s="24"/>
-      <c r="P9" s="24">
+      <c r="O9" s="28"/>
+      <c r="P9" s="28">
         <f>+N9+1</f>
         <v>2017</v>
       </c>
-      <c r="Q9" s="24"/>
-      <c r="R9" s="24">
+      <c r="Q9" s="28"/>
+      <c r="R9" s="28">
         <f>+P9+1</f>
         <v>2018</v>
       </c>
-      <c r="S9" s="24"/>
-    </row>
-    <row r="10" spans="1:19" ht="60">
+      <c r="S9" s="28"/>
+      <c r="T9" s="28">
+        <f>+R9+1</f>
+        <v>2019</v>
+      </c>
+      <c r="U9" s="28"/>
+    </row>
+    <row r="10" spans="1:21" ht="57.6">
       <c r="A10" s="6" t="s">
         <v>14</v>
       </c>
@@ -2003,8 +2065,14 @@
       <c r="S10" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:19">
+      <c r="T10" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="U10" s="20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
       <c r="A11" s="5" t="s">
         <v>15</v>
       </c>
@@ -2062,32 +2130,41 @@
       <c r="S11" s="3">
         <v>15.533999999999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:19">
+      <c r="T11" s="3">
+        <v>1354.577</v>
+      </c>
+      <c r="U11" s="3">
+        <v>17.631999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
       <c r="D12" s="11"/>
       <c r="E12" s="10"/>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:21">
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="11"/>
       <c r="E13" s="10"/>
-    </row>
-    <row r="14" spans="1:19">
+      <c r="T13" s="29"/>
+    </row>
+    <row r="14" spans="1:21">
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="11"/>
       <c r="E14" s="10"/>
-    </row>
-    <row r="15" spans="1:19">
+      <c r="T14" s="29"/>
+    </row>
+    <row r="15" spans="1:21">
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="D15" s="11"/>
       <c r="E15" s="10"/>
-    </row>
-    <row r="16" spans="1:19">
+      <c r="T15" s="30"/>
+    </row>
+    <row r="16" spans="1:21">
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="11"/>
@@ -2190,18 +2267,19 @@
       <c r="E35" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
+  <mergeCells count="12">
+    <mergeCell ref="T9:U9"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="N9:O9"/>
     <mergeCell ref="P9:Q9"/>
     <mergeCell ref="R9:S9"/>
     <mergeCell ref="B6:I6"/>
     <mergeCell ref="J9:K9"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
